--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -305,6 +311,9 @@
     <t>evento.datiEventoCittadinanza.delegato</t>
   </si>
   <si>
+    <t>{evento.datiEventoCittadinanza.presenzaInteressato,=,true}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -357,6 +366,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -427,6 +439,7 @@
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="54.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,225 +461,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -688,1545 +737,1779 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto notificato con marca da bollo da € 16</t>
+  </si>
+  <si>
+    <t>Comunicazione prefettizia di concessione cittadinanza</t>
+  </si>
+  <si>
+    <t>Documento d’identità</t>
+  </si>
+  <si>
+    <t>Documentazione comprovante l’incapacità di agire</t>
+  </si>
+  <si>
+    <t>Documento di delega per il rappresentante</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto notificato con marca da bollo da € 16</t>
-  </si>
-  <si>
-    <t>Comunicazione prefettizia di concessione cittadinanza</t>
-  </si>
-  <si>
-    <t>Documento d’identità</t>
-  </si>
-  <si>
-    <t>Documentazione comprovante l’incapacità di agire</t>
-  </si>
-  <si>
-    <t>Documento di delega per il rappresentante</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -738,1778 +741,1778 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -314,7 +314,7 @@
     <t>evento.datiEventoCittadinanza.delegato</t>
   </si>
   <si>
-    <t>{evento.datiEventoCittadinanza.presenzaInteressato,=,true}</t>
+    <t>evento.datiEventoCittadinanza.presenzaInteressato,=,true</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -371,7 +371,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="54.66015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="53.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -722,974 +728,974 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>105</v>
@@ -1698,21 +1704,21 @@
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>106</v>
@@ -1721,67 +1727,67 @@
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>109</v>
@@ -1790,21 +1796,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>110</v>
@@ -1813,67 +1819,67 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>113</v>
@@ -1882,21 +1888,21 @@
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
@@ -1905,21 +1911,21 @@
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>115</v>
@@ -1928,274 +1934,274 @@
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>105</v>
@@ -2204,21 +2210,21 @@
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>106</v>
@@ -2227,67 +2233,67 @@
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>109</v>
@@ -2296,21 +2302,21 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>110</v>
@@ -2319,67 +2325,67 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>113</v>
@@ -2388,21 +2394,21 @@
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>114</v>
@@ -2411,21 +2417,21 @@
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>115</v>
@@ -2434,85 +2440,131 @@
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -68,24 +68,12 @@
     <t>81</t>
   </si>
   <si>
-    <t>194</t>
+    <t>198</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>199</t>
   </si>
   <si>
@@ -372,9 +360,6 @@
   </si>
   <si>
     <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
   </si>
   <si>
     <t>evento.ausilioInterprete,=,false</t>
@@ -436,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -682,1204 +667,1204 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>113</v>
@@ -1888,504 +1873,504 @@
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>113</v>
@@ -2394,177 +2379,85 @@
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>81</t>
+    <t>81.1</t>
   </si>
   <si>
     <t>198</t>
@@ -288,12 +288,6 @@
   </si>
   <si>
     <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Interessato presente</t>
-  </si>
-  <si>
-    <t>presenzaInteressato</t>
   </si>
   <si>
     <t>Presenza interprete</t>
@@ -421,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -890,7 +884,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
@@ -936,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
@@ -1074,7 +1068,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
@@ -1120,7 +1114,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
@@ -1258,7 +1252,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1304,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1327,7 +1321,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1410,10 +1404,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>93</v>
@@ -1427,1037 +1421,1014 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1128,7 +1134,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
@@ -1220,7 +1226,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -1335,7 +1341,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -1398,19 +1404,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1421,283 +1427,283 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>105</v>
@@ -1706,21 +1712,21 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>106</v>
@@ -1729,67 +1735,67 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -1798,21 +1804,21 @@
         <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>110</v>
@@ -1821,21 +1827,21 @@
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>111</v>
@@ -1844,274 +1850,274 @@
         <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2120,21 +2126,21 @@
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>102</v>
@@ -2143,292 +2149,361 @@
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -302,7 +302,7 @@
     <t>ausilioInterprete</t>
   </si>
   <si>
-    <t>Delegato</t>
+    <t>Tutore/Familiare</t>
   </si>
   <si>
     <t>evento.datiEventoCittadinanza.delegato</t>
@@ -427,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
@@ -821,7 +821,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>26</v>
@@ -890,7 +890,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
@@ -936,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
@@ -1074,7 +1074,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
@@ -1120,7 +1120,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
@@ -1143,7 +1143,7 @@
         <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>26</v>
@@ -1281,7 +1281,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1327,7 +1327,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1350,7 +1350,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -362,7 +362,10 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="53.27734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2488,7 +2491,7 @@
         <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2488,7 @@
         <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2491,7 @@
         <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -424,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1367,7 +1391,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -1390,7 +1414,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -1399,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1413,7 +1437,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
@@ -1430,22 +1454,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1453,1060 +1477,1152 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -330,9 +330,6 @@
   </si>
   <si>
     <t>evento.datiEventoCittadinanza.delegato</t>
-  </si>
-  <si>
-    <t>evento.datiEventoCittadinanza.presenzaInteressato,=,true</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -1587,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1610,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -1633,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -1656,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -1664,7 +1661,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -1679,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -1687,7 +1684,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1702,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -1710,7 +1707,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
@@ -1725,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -1733,7 +1730,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
@@ -1748,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -1756,7 +1753,7 @@
         <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
@@ -1771,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -1779,7 +1776,7 @@
         <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
@@ -1794,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
@@ -1817,7 +1814,7 @@
         <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -1825,7 +1822,7 @@
         <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -1840,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
@@ -1848,7 +1845,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1863,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -1871,7 +1868,7 @@
         <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -1886,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
@@ -1894,7 +1891,7 @@
         <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -1909,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -1917,7 +1914,7 @@
         <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
@@ -1932,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -1940,7 +1937,7 @@
         <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -1955,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -1963,7 +1960,7 @@
         <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>19</v>
@@ -1978,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -1986,7 +1983,7 @@
         <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
@@ -2001,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -2009,7 +2006,7 @@
         <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
@@ -2024,7 +2021,7 @@
         <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -2047,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -2070,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -2093,12 +2090,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>44</v>
@@ -2107,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>46</v>
@@ -2116,12 +2113,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>47</v>
@@ -2130,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>48</v>
@@ -2139,12 +2136,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>51</v>
@@ -2153,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>52</v>
@@ -2162,12 +2159,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>53</v>
@@ -2176,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>54</v>
@@ -2185,21 +2182,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>56</v>
@@ -2208,21 +2205,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>58</v>
@@ -2231,21 +2228,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>60</v>
@@ -2254,21 +2251,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>62</v>
@@ -2277,21 +2274,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>64</v>
@@ -2300,21 +2297,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>66</v>
@@ -2323,12 +2320,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>67</v>
@@ -2337,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>68</v>
@@ -2346,21 +2343,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>70</v>
@@ -2369,21 +2366,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>72</v>
@@ -2392,21 +2389,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>74</v>
@@ -2415,21 +2412,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>76</v>
@@ -2438,21 +2435,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>78</v>
@@ -2461,21 +2458,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>80</v>
@@ -2484,21 +2481,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>82</v>
@@ -2507,21 +2504,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>84</v>
@@ -2530,21 +2527,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>86</v>
@@ -2553,12 +2550,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>95</v>
@@ -2567,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>96</v>
@@ -2576,12 +2573,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>97</v>
@@ -2590,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>98</v>
@@ -2599,21 +2596,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>100</v>
@@ -2622,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -350,10 +356,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -445,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -974,7 +977,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>45</v>
@@ -1066,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>45</v>
@@ -1098,7 +1101,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
@@ -1121,7 +1124,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>26</v>
@@ -1144,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
@@ -1181,7 +1184,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
@@ -1190,7 +1193,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>26</v>
@@ -1273,7 +1276,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -1305,7 +1308,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1328,7 +1331,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1351,7 +1354,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1397,7 +1400,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1420,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1443,7 +1446,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1466,7 +1469,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1480,7 +1483,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>45</v>
@@ -1489,7 +1492,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1543,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1566,22 +1569,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1589,22 +1592,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1612,19 +1615,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,22 +1730,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>26</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>110</v>
@@ -1759,10 +1762,10 @@
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,7 +1776,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>111</v>
@@ -1782,10 +1785,10 @@
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
@@ -1796,22 +1799,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -1819,22 +1822,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>26</v>
@@ -1842,22 +1845,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>26</v>
@@ -1865,19 +1868,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1891,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1934,22 +1937,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>26</v>
@@ -1957,19 +1960,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1983,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>17</v>
@@ -2003,22 +2006,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2026,22 +2029,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>26</v>
@@ -2049,22 +2052,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>26</v>
@@ -2072,19 +2075,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2095,531 +2098,600 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>123</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,6 +239,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
@@ -321,15 +327,6 @@
   </si>
   <si>
     <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
   </si>
   <si>
     <t>Tutore/Familiare</t>
@@ -448,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1253,7 +1250,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -1262,7 +1259,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1276,7 +1273,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -1308,7 +1305,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1331,7 +1328,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1354,7 +1351,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1377,7 +1374,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -1423,7 +1420,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1446,7 +1443,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1469,7 +1466,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1492,7 +1489,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1506,7 +1503,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>45</v>
@@ -1515,7 +1512,7 @@
         <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1569,19 +1566,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>44</v>
@@ -1601,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>46</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>47</v>
@@ -1624,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>48</v>
@@ -1638,7 +1635,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -1647,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>52</v>
@@ -1661,7 +1658,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>53</v>
@@ -1670,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>54</v>
@@ -1684,7 +1681,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
@@ -1693,7 +1690,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
@@ -1707,16 +1704,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>58</v>
@@ -1730,16 +1727,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>60</v>
@@ -1753,16 +1750,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>62</v>
@@ -1776,16 +1773,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
@@ -1799,16 +1796,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
@@ -1822,16 +1819,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -1845,7 +1842,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
@@ -1854,7 +1851,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>70</v>
@@ -1868,7 +1865,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
@@ -1877,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
@@ -1891,16 +1888,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
@@ -1914,22 +1911,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -1937,16 +1934,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
@@ -1960,22 +1957,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -1983,22 +1980,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>26</v>
@@ -2006,22 +2003,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2029,22 +2026,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>26</v>
@@ -2052,16 +2049,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
@@ -2075,22 +2072,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>26</v>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>99</v>
@@ -2107,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>100</v>
@@ -2121,7 +2118,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>101</v>
@@ -2130,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>102</v>
@@ -2144,554 +2141,600 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E97" s="2" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -68,66 +68,60 @@
     <t>81.1</t>
   </si>
   <si>
-    <t>198</t>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
+    <t>Data formazione</t>
+  </si>
+  <si>
+    <t>dataformazione</t>
+  </si>
+  <si>
+    <t>Ora formazione</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>Minuti formazione</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decreto conferimento</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>dataDecretoConferimento</t>
+  </si>
+  <si>
+    <t>Data registrazione alla Corte dei Conti</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
-    <t>evento</t>
-  </si>
-  <si>
-    <t>numeroatto</t>
-  </si>
-  <si>
-    <t>obbligatoria</t>
-  </si>
-  <si>
-    <t>Data formazione</t>
-  </si>
-  <si>
-    <t>dataformazione</t>
-  </si>
-  <si>
-    <t>Ora formazione</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>Minuti formazione</t>
-  </si>
-  <si>
-    <t>minuto</t>
-  </si>
-  <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Data decreto conferimento</t>
-  </si>
-  <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>dataDecretoConferimento</t>
-  </si>
-  <si>
-    <t>Data registrazione alla Corte dei Conti</t>
-  </si>
-  <si>
     <t>dataRegistrazioneDecreto</t>
   </si>
   <si>
@@ -354,6 +348,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -645,1420 +645,1420 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
@@ -2067,35 +2067,35 @@
         <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>99</v>
@@ -2104,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>100</v>
@@ -2113,12 +2113,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>101</v>
@@ -2127,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>102</v>
@@ -2136,30 +2136,30 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
@@ -2167,10 +2167,10 @@
         <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>122</v>
@@ -2190,16 +2190,16 @@
         <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2216,7 +2216,7 @@
         <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2282,7 +2282,7 @@
         <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2305,10 +2305,10 @@
         <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>122</v>
@@ -2328,10 +2328,10 @@
         <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>122</v>
@@ -2351,10 +2351,10 @@
         <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>122</v>
@@ -2374,10 +2374,10 @@
         <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>122</v>
@@ -2397,10 +2397,10 @@
         <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>122</v>
@@ -2423,7 +2423,7 @@
         <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>122</v>
@@ -2443,7 +2443,7 @@
         <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2466,16 +2466,16 @@
         <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,16 +2489,16 @@
         <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2515,13 +2515,13 @@
         <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2538,13 +2538,13 @@
         <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2561,13 +2561,13 @@
         <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2584,13 +2584,13 @@
         <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2607,13 +2607,13 @@
         <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2630,13 +2630,13 @@
         <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2653,13 +2653,13 @@
         <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2673,7 +2673,7 @@
         <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2682,7 +2682,7 @@
         <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2696,7 +2696,7 @@
         <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2705,7 +2705,7 @@
         <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2728,7 +2728,7 @@
         <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>Firmatario</t>
@@ -457,7 +454,7 @@
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2159,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -2182,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -2205,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -2228,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
@@ -2251,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
@@ -2274,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
@@ -2297,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -2320,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -2343,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -2366,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -2389,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -2412,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
@@ -2435,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -2458,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
@@ -2481,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -2504,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
@@ -2527,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
@@ -2550,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -2573,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
@@ -2596,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2619,7 +2616,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -2642,7 +2639,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -2665,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -2688,7 +2685,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
@@ -2711,7 +2708,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -2719,7 +2716,7 @@
         <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2734,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,150 +137,219 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
+    <t>Sindaco</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Codice Fiscale</t>
   </si>
   <si>
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>idANPR</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita</t>
   </si>
   <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita</t>
   </si>
   <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita</t>
   </si>
   <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
     <t>Nazionalità   - Descrizione</t>
   </si>
   <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Residenza non nota</t>
-  </si>
-  <si>
-    <t>flagIrreperibile</t>
-  </si>
-  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
     <t>Stato Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza</t>
   </si>
   <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza</t>
   </si>
   <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
     <t>Indirizzo Residenza</t>
   </si>
   <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -305,85 +374,25 @@
     <t>nomeComuneAIRE</t>
   </si>
   <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>flag firmatario</t>
   </si>
   <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
     <t>Tutore/Familiare</t>
   </si>
   <si>
     <t>evento.datiEventoCittadinanza.delegato</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
     <t>Comprensione</t>
   </si>
   <si>
     <t>tipoImpedimento</t>
   </si>
   <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
     <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -856,7 +865,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
@@ -865,10 +874,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -876,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -885,13 +894,13 @@
         <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -899,7 +908,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -908,13 +917,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -922,7 +931,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -931,13 +940,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -945,22 +954,22 @@
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -968,22 +977,22 @@
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -991,22 +1000,22 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1014,22 +1023,22 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1037,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -1046,13 +1055,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -1060,7 +1069,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
@@ -1069,13 +1078,13 @@
         <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1083,7 +1092,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
@@ -1092,13 +1101,13 @@
         <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1106,7 +1115,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>35</v>
@@ -1115,13 +1124,13 @@
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1129,7 +1138,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -1138,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -1152,22 +1161,22 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1175,22 +1184,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -1198,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>35</v>
@@ -1207,13 +1216,13 @@
         <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
@@ -1221,7 +1230,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -1230,13 +1239,13 @@
         <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -1244,7 +1253,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -1253,13 +1262,13 @@
         <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -1267,7 +1276,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -1276,13 +1285,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1290,7 +1299,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1299,13 +1308,13 @@
         <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -1313,7 +1322,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>35</v>
@@ -1322,13 +1331,13 @@
         <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -1336,7 +1345,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>35</v>
@@ -1345,13 +1354,13 @@
         <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -1359,22 +1368,22 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1382,22 +1391,22 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1405,7 +1414,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>35</v>
@@ -1414,33 +1423,33 @@
         <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>23</v>
@@ -1448,22 +1457,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>23</v>
@@ -1471,22 +1480,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>23</v>
@@ -1494,19 +1503,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1526,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,22 +1549,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>23</v>
@@ -1563,19 +1572,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1595,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1618,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1632,22 +1641,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>23</v>
@@ -1655,19 +1664,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,22 +1687,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>23</v>
@@ -1701,22 +1710,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>23</v>
@@ -1724,22 +1733,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>23</v>
@@ -1747,19 +1756,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1779,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
@@ -1793,22 +1802,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>23</v>
@@ -1816,22 +1825,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>23</v>
@@ -1839,19 +1848,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1871,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -1885,22 +1894,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>23</v>
@@ -1908,22 +1917,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>23</v>
@@ -1931,19 +1940,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
@@ -1954,19 +1963,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1986,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>17</v>
@@ -2000,19 +2009,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2032,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -2046,22 +2055,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2069,19 +2078,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2101,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,22 +2124,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -2141,16 +2150,16 @@
         <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2164,16 +2173,16 @@
         <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2187,16 +2196,16 @@
         <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2210,7 +2219,7 @@
         <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2219,7 +2228,7 @@
         <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2233,7 +2242,7 @@
         <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2242,7 +2251,7 @@
         <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2256,7 +2265,7 @@
         <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2265,7 +2274,7 @@
         <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2279,16 +2288,16 @@
         <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2302,7 +2311,7 @@
         <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>35</v>
@@ -2311,10 +2320,10 @@
         <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>23</v>
@@ -2325,7 +2334,7 @@
         <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>35</v>
@@ -2334,7 +2343,7 @@
         <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2348,7 +2357,7 @@
         <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>35</v>
@@ -2357,10 +2366,10 @@
         <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>23</v>
@@ -2371,7 +2380,7 @@
         <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>35</v>
@@ -2380,10 +2389,10 @@
         <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>23</v>
@@ -2394,16 +2403,16 @@
         <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2417,7 +2426,7 @@
         <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2426,7 +2435,7 @@
         <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2449,19 @@
         <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>23</v>
@@ -2463,7 +2472,7 @@
         <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>35</v>
@@ -2472,10 +2481,10 @@
         <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>23</v>
@@ -2486,7 +2495,7 @@
         <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>35</v>
@@ -2495,7 +2504,7 @@
         <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2509,7 +2518,7 @@
         <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>35</v>
@@ -2518,10 +2527,10 @@
         <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>23</v>
@@ -2532,7 +2541,7 @@
         <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>35</v>
@@ -2541,7 +2550,7 @@
         <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2555,7 +2564,7 @@
         <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>35</v>
@@ -2564,10 +2573,10 @@
         <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>23</v>
@@ -2578,7 +2587,7 @@
         <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>35</v>
@@ -2587,7 +2596,7 @@
         <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2601,7 +2610,7 @@
         <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>35</v>
@@ -2610,10 +2619,10 @@
         <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>23</v>
@@ -2624,7 +2633,7 @@
         <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>35</v>
@@ -2633,10 +2642,10 @@
         <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>23</v>
@@ -2647,16 +2656,16 @@
         <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2670,7 +2679,7 @@
         <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2679,7 +2688,7 @@
         <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2693,7 +2702,7 @@
         <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2702,7 +2711,7 @@
         <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2713,24 +2722,599 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,7 +137,16 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
-    <t>Sindaco</t>
+    <t>Officiante</t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -147,9 +156,6 @@
   </si>
   <si>
     <t>cognome</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Nome</t>
@@ -451,14 +457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
@@ -868,16 +874,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -885,13 +891,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -900,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -911,10 +917,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -923,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -946,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -960,7 +966,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -969,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -983,7 +989,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -992,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1006,7 +1012,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -1015,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1029,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -1038,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1052,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -1061,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1075,7 +1081,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -1084,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1098,7 +1104,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -1107,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -1121,7 +1127,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -1130,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1144,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -1153,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1167,7 +1173,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -1176,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1190,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
@@ -1199,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -1213,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -1222,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -1236,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>77</v>
@@ -1245,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -1259,7 +1265,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>79</v>
@@ -1268,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -1282,7 +1288,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>81</v>
@@ -1291,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -1305,7 +1311,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>83</v>
@@ -1314,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -1328,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>85</v>
@@ -1337,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
@@ -1351,7 +1357,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>87</v>
@@ -1360,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -1371,10 +1377,10 @@
         <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>89</v>
@@ -1383,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -1397,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>91</v>
@@ -1406,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1417,10 +1423,10 @@
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>93</v>
@@ -1429,50 +1435,50 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>23</v>
@@ -1480,22 +1486,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>23</v>
@@ -1503,22 +1509,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>23</v>
@@ -1526,16 +1532,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>52</v>
@@ -1558,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>53</v>
@@ -1572,16 +1578,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
@@ -1595,16 +1601,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
@@ -1618,16 +1624,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>59</v>
@@ -1641,22 +1647,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>23</v>
@@ -1664,22 +1670,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>23</v>
@@ -1687,22 +1693,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>23</v>
@@ -1710,16 +1716,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
@@ -1733,22 +1739,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>23</v>
@@ -1756,16 +1762,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>71</v>
@@ -1779,22 +1785,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>23</v>
@@ -1802,22 +1808,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>23</v>
@@ -1825,22 +1831,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>23</v>
@@ -1848,22 +1854,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>23</v>
@@ -1871,22 +1877,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>23</v>
@@ -1894,22 +1900,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>23</v>
@@ -1917,22 +1923,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>23</v>
@@ -1940,16 +1946,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>87</v>
@@ -1963,22 +1969,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -1995,13 +2001,13 @@
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>23</v>
@@ -2009,7 +2015,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>116</v>
@@ -2018,13 +2024,13 @@
         <v>35</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>118</v>
@@ -2041,13 +2047,13 @@
         <v>35</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>23</v>
@@ -2055,22 +2061,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2078,7 +2084,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
@@ -2087,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>91</v>
@@ -2101,16 +2107,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
@@ -2124,22 +2130,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>23</v>
@@ -2170,16 +2176,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>49</v>
@@ -2193,16 +2199,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>51</v>
@@ -2216,7 +2222,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>52</v>
@@ -2225,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>53</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>54</v>
@@ -2248,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>55</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>56</v>
@@ -2271,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>57</v>
@@ -2285,16 +2291,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>59</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>60</v>
@@ -2317,13 +2323,13 @@
         <v>35</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>23</v>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>62</v>
@@ -2340,13 +2346,13 @@
         <v>35</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>23</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>64</v>
@@ -2363,13 +2369,13 @@
         <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>23</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>66</v>
@@ -2386,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>67</v>
@@ -2400,22 +2406,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>23</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>70</v>
@@ -2432,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>71</v>
@@ -2446,22 +2452,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>23</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>74</v>
@@ -2501,13 +2507,13 @@
         <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>23</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>76</v>
@@ -2524,13 +2530,13 @@
         <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>23</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>78</v>
@@ -2547,13 +2553,13 @@
         <v>35</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>23</v>
@@ -2561,7 +2567,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>80</v>
@@ -2570,13 +2576,13 @@
         <v>35</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>23</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>82</v>
@@ -2593,13 +2599,13 @@
         <v>35</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>23</v>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>84</v>
@@ -2616,13 +2622,13 @@
         <v>35</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>23</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>86</v>
@@ -2639,7 +2645,7 @@
         <v>35</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>87</v>
@@ -2653,22 +2659,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>23</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>90</v>
@@ -2685,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>91</v>
@@ -2699,16 +2705,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>93</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2745,16 +2751,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>47</v>
@@ -2768,16 +2774,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>49</v>
@@ -2791,16 +2797,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>51</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>52</v>
@@ -2823,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>53</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>54</v>
@@ -2846,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>55</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>56</v>
@@ -2869,7 +2875,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>57</v>
@@ -2883,16 +2889,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>59</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>60</v>
@@ -2915,7 +2921,7 @@
         <v>35</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>61</v>
@@ -2929,7 +2935,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>62</v>
@@ -2938,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>63</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>64</v>
@@ -2961,7 +2967,7 @@
         <v>35</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>65</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>66</v>
@@ -2984,7 +2990,7 @@
         <v>35</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>67</v>
@@ -2998,16 +3004,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>69</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>70</v>
@@ -3030,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>71</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>74</v>
@@ -3099,7 +3105,7 @@
         <v>35</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>75</v>
@@ -3113,7 +3119,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>76</v>
@@ -3122,7 +3128,7 @@
         <v>35</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>77</v>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>78</v>
@@ -3145,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>79</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>80</v>
@@ -3168,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>81</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>82</v>
@@ -3191,7 +3197,7 @@
         <v>35</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>83</v>
@@ -3205,7 +3211,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>84</v>
@@ -3214,7 +3220,7 @@
         <v>35</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>85</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>86</v>
@@ -3237,7 +3243,7 @@
         <v>35</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>87</v>
@@ -3251,16 +3257,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>89</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>90</v>
@@ -3283,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>91</v>
@@ -3297,7 +3303,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>92</v>
@@ -3306,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>93</v>
@@ -3315,6 +3321,29 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,25 +137,19 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
-    <t>Officiante</t>
-  </si>
-  <si>
-    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
-  </si>
-  <si>
-    <t>officiante</t>
+    <t>Sindaco</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
   </si>
   <si>
     <t>opzionale</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.ufficialeStatoCivile</t>
-  </si>
-  <si>
-    <t>cognome</t>
   </si>
   <si>
     <t>Nome</t>
@@ -457,14 +451,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
@@ -874,16 +868,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -891,13 +885,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -906,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -917,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -929,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -943,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -952,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -966,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -975,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -989,7 +983,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -998,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1012,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -1021,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1035,7 +1029,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -1044,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1058,7 +1052,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -1067,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -1090,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1104,7 +1098,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -1113,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1127,7 +1121,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -1136,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1150,7 +1144,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -1159,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -1173,7 +1167,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -1182,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1196,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
@@ -1205,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -1219,7 +1213,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -1228,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
@@ -1242,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>77</v>
@@ -1251,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -1265,7 +1259,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>79</v>
@@ -1274,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -1288,7 +1282,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>81</v>
@@ -1297,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1311,7 +1305,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>83</v>
@@ -1320,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -1334,7 +1328,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>85</v>
@@ -1343,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -1357,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>87</v>
@@ -1366,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -1377,10 +1371,10 @@
         <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>89</v>
@@ -1389,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1403,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>91</v>
@@ -1412,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1423,10 +1417,10 @@
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>93</v>
@@ -1435,50 +1429,50 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>23</v>
@@ -1486,22 +1480,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>23</v>
@@ -1509,22 +1503,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>23</v>
@@ -1532,16 +1526,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
@@ -1555,7 +1549,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>52</v>
@@ -1564,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>53</v>
@@ -1578,16 +1572,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
@@ -1601,16 +1595,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
@@ -1624,16 +1618,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>59</v>
@@ -1647,22 +1641,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>23</v>
@@ -1670,22 +1664,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>23</v>
@@ -1693,22 +1687,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>23</v>
@@ -1716,16 +1710,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
@@ -1739,22 +1733,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>23</v>
@@ -1762,16 +1756,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>71</v>
@@ -1785,22 +1779,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>23</v>
@@ -1808,22 +1802,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>23</v>
@@ -1831,22 +1825,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>23</v>
@@ -1854,22 +1848,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>23</v>
@@ -1877,22 +1871,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>23</v>
@@ -1900,22 +1894,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>23</v>
@@ -1923,22 +1917,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>23</v>
@@ -1946,16 +1940,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>87</v>
@@ -1969,22 +1963,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -1992,7 +1986,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -2001,13 +1995,13 @@
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>23</v>
@@ -2015,7 +2009,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>116</v>
@@ -2024,13 +2018,13 @@
         <v>35</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2038,7 +2032,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>118</v>
@@ -2047,13 +2041,13 @@
         <v>35</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>23</v>
@@ -2061,22 +2055,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2084,7 +2078,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
@@ -2093,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>91</v>
@@ -2107,16 +2101,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
@@ -2130,22 +2124,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -2153,22 +2147,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>23</v>
@@ -2176,16 +2170,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>49</v>
@@ -2199,16 +2193,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>51</v>
@@ -2222,7 +2216,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>52</v>
@@ -2231,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>53</v>
@@ -2245,7 +2239,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>54</v>
@@ -2254,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>55</v>
@@ -2268,7 +2262,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>56</v>
@@ -2277,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>57</v>
@@ -2291,16 +2285,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>59</v>
@@ -2314,7 +2308,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>60</v>
@@ -2323,13 +2317,13 @@
         <v>35</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>23</v>
@@ -2337,7 +2331,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>62</v>
@@ -2346,13 +2340,13 @@
         <v>35</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>23</v>
@@ -2360,7 +2354,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>64</v>
@@ -2369,13 +2363,13 @@
         <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>23</v>
@@ -2383,7 +2377,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>66</v>
@@ -2392,7 +2386,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>67</v>
@@ -2406,22 +2400,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>23</v>
@@ -2429,7 +2423,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>70</v>
@@ -2438,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>71</v>
@@ -2452,22 +2446,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>23</v>
@@ -2475,19 +2469,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
@@ -2498,7 +2492,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>74</v>
@@ -2507,13 +2501,13 @@
         <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>23</v>
@@ -2521,7 +2515,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>76</v>
@@ -2530,13 +2524,13 @@
         <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>23</v>
@@ -2544,7 +2538,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>78</v>
@@ -2553,13 +2547,13 @@
         <v>35</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>23</v>
@@ -2567,7 +2561,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>80</v>
@@ -2576,13 +2570,13 @@
         <v>35</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>23</v>
@@ -2590,7 +2584,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>82</v>
@@ -2599,13 +2593,13 @@
         <v>35</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>23</v>
@@ -2613,7 +2607,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>84</v>
@@ -2622,13 +2616,13 @@
         <v>35</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>23</v>
@@ -2636,7 +2630,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>86</v>
@@ -2645,7 +2639,7 @@
         <v>35</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>87</v>
@@ -2659,22 +2653,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>23</v>
@@ -2682,7 +2676,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>90</v>
@@ -2691,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>91</v>
@@ -2705,16 +2699,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>93</v>
@@ -2728,19 +2722,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2751,16 +2745,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>47</v>
@@ -2774,16 +2768,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>49</v>
@@ -2797,16 +2791,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>51</v>
@@ -2820,7 +2814,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>52</v>
@@ -2829,7 +2823,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>53</v>
@@ -2843,7 +2837,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>54</v>
@@ -2852,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>55</v>
@@ -2866,7 +2860,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>56</v>
@@ -2875,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>57</v>
@@ -2889,16 +2883,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>59</v>
@@ -2912,7 +2906,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>60</v>
@@ -2921,7 +2915,7 @@
         <v>35</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>61</v>
@@ -2935,7 +2929,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>62</v>
@@ -2944,7 +2938,7 @@
         <v>35</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>63</v>
@@ -2958,7 +2952,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>64</v>
@@ -2967,7 +2961,7 @@
         <v>35</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>65</v>
@@ -2981,7 +2975,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>66</v>
@@ -2990,7 +2984,7 @@
         <v>35</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>67</v>
@@ -3004,16 +2998,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>69</v>
@@ -3027,7 +3021,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>70</v>
@@ -3036,7 +3030,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>71</v>
@@ -3050,19 +3044,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3067,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3096,7 +3090,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>74</v>
@@ -3105,7 +3099,7 @@
         <v>35</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>75</v>
@@ -3119,7 +3113,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>76</v>
@@ -3128,7 +3122,7 @@
         <v>35</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>77</v>
@@ -3142,7 +3136,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>78</v>
@@ -3151,7 +3145,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>79</v>
@@ -3165,7 +3159,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>80</v>
@@ -3174,7 +3168,7 @@
         <v>35</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>81</v>
@@ -3188,7 +3182,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>82</v>
@@ -3197,7 +3191,7 @@
         <v>35</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>83</v>
@@ -3211,7 +3205,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>84</v>
@@ -3220,7 +3214,7 @@
         <v>35</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>85</v>
@@ -3234,7 +3228,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>86</v>
@@ -3243,7 +3237,7 @@
         <v>35</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>87</v>
@@ -3257,16 +3251,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>89</v>
@@ -3280,7 +3274,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>90</v>
@@ -3289,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>91</v>
@@ -3303,7 +3297,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>92</v>
@@ -3312,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>93</v>
@@ -3321,29 +3315,6 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,7 +137,16 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
-    <t>Sindaco</t>
+    <t xml:space="preserve">Officiante </t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -147,9 +156,6 @@
   </si>
   <si>
     <t>cognome</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Nome</t>
@@ -451,14 +457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
@@ -868,16 +874,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -885,13 +891,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -900,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -911,10 +917,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -923,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -946,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -960,7 +966,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -969,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -983,7 +989,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -992,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1006,7 +1012,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -1015,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1029,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -1038,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1052,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -1061,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1075,7 +1081,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -1084,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1098,7 +1104,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -1107,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -1121,7 +1127,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -1130,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1144,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -1153,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1167,7 +1173,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -1176,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1190,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
@@ -1199,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -1213,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -1222,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -1236,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>77</v>
@@ -1245,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -1259,7 +1265,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>79</v>
@@ -1268,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -1282,7 +1288,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>81</v>
@@ -1291,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -1305,7 +1311,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>83</v>
@@ -1314,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -1328,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>85</v>
@@ -1337,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
@@ -1351,7 +1357,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>87</v>
@@ -1360,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -1371,10 +1377,10 @@
         <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>89</v>
@@ -1383,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -1397,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>91</v>
@@ -1406,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1417,10 +1423,10 @@
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>93</v>
@@ -1429,50 +1435,50 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>23</v>
@@ -1480,22 +1486,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>23</v>
@@ -1503,22 +1509,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>23</v>
@@ -1526,16 +1532,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>52</v>
@@ -1558,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>53</v>
@@ -1572,16 +1578,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
@@ -1595,16 +1601,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
@@ -1618,16 +1624,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>59</v>
@@ -1641,22 +1647,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>23</v>
@@ -1664,22 +1670,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>23</v>
@@ -1687,22 +1693,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>23</v>
@@ -1710,16 +1716,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
@@ -1733,22 +1739,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>23</v>
@@ -1756,16 +1762,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>71</v>
@@ -1779,22 +1785,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>23</v>
@@ -1802,22 +1808,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>23</v>
@@ -1825,22 +1831,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>23</v>
@@ -1848,22 +1854,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>23</v>
@@ -1871,22 +1877,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>23</v>
@@ -1894,22 +1900,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>23</v>
@@ -1917,22 +1923,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>23</v>
@@ -1940,16 +1946,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>87</v>
@@ -1963,22 +1969,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -1995,13 +2001,13 @@
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>23</v>
@@ -2009,7 +2015,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>116</v>
@@ -2018,13 +2024,13 @@
         <v>35</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>118</v>
@@ -2041,13 +2047,13 @@
         <v>35</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>23</v>
@@ -2055,22 +2061,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2078,7 +2084,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
@@ -2087,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>91</v>
@@ -2101,16 +2107,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
@@ -2124,22 +2130,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>23</v>
@@ -2170,16 +2176,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>49</v>
@@ -2193,16 +2199,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>51</v>
@@ -2216,7 +2222,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>52</v>
@@ -2225,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>53</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>54</v>
@@ -2248,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>55</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>56</v>
@@ -2271,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>57</v>
@@ -2285,16 +2291,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>59</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>60</v>
@@ -2317,13 +2323,13 @@
         <v>35</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>23</v>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>62</v>
@@ -2340,13 +2346,13 @@
         <v>35</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>23</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>64</v>
@@ -2363,13 +2369,13 @@
         <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>23</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>66</v>
@@ -2386,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>67</v>
@@ -2400,22 +2406,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>23</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>70</v>
@@ -2432,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>71</v>
@@ -2446,22 +2452,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>23</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>74</v>
@@ -2501,13 +2507,13 @@
         <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>23</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>76</v>
@@ -2524,13 +2530,13 @@
         <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>23</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>78</v>
@@ -2547,13 +2553,13 @@
         <v>35</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>23</v>
@@ -2561,7 +2567,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>80</v>
@@ -2570,13 +2576,13 @@
         <v>35</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>23</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>82</v>
@@ -2593,13 +2599,13 @@
         <v>35</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>23</v>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>84</v>
@@ -2616,13 +2622,13 @@
         <v>35</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>23</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>86</v>
@@ -2639,7 +2645,7 @@
         <v>35</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>87</v>
@@ -2653,22 +2659,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>23</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>90</v>
@@ -2685,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>91</v>
@@ -2699,16 +2705,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>93</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2745,16 +2751,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>47</v>
@@ -2768,16 +2774,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>49</v>
@@ -2791,16 +2797,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>51</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>52</v>
@@ -2823,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>53</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>54</v>
@@ -2846,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>55</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>56</v>
@@ -2869,7 +2875,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>57</v>
@@ -2883,16 +2889,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>59</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>60</v>
@@ -2915,7 +2921,7 @@
         <v>35</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>61</v>
@@ -2929,7 +2935,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>62</v>
@@ -2938,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>63</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>64</v>
@@ -2961,7 +2967,7 @@
         <v>35</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>65</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>66</v>
@@ -2984,7 +2990,7 @@
         <v>35</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>67</v>
@@ -2998,16 +3004,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>69</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>70</v>
@@ -3030,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>71</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>74</v>
@@ -3099,7 +3105,7 @@
         <v>35</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>75</v>
@@ -3113,7 +3119,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>76</v>
@@ -3122,7 +3128,7 @@
         <v>35</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>77</v>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>78</v>
@@ -3145,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>79</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>80</v>
@@ -3168,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>81</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>82</v>
@@ -3191,7 +3197,7 @@
         <v>35</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>83</v>
@@ -3205,7 +3211,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>84</v>
@@ -3214,7 +3220,7 @@
         <v>35</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>85</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>86</v>
@@ -3237,7 +3243,7 @@
         <v>35</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>87</v>
@@ -3251,16 +3257,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>89</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>90</v>
@@ -3283,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>91</v>
@@ -3297,7 +3303,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>92</v>
@@ -3306,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>93</v>
@@ -3315,6 +3321,29 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -3033,7 +3033,7 @@
         <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>128</v>
@@ -3056,7 +3056,7 @@
         <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>128</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_044.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -457,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1400,7 +1412,7 @@
         <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
@@ -1423,7 +1435,7 @@
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1446,7 +1458,7 @@
         <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>46</v>
@@ -1463,65 +1475,65 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>17</v>
@@ -1532,19 +1544,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1555,22 +1567,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>23</v>
@@ -1578,19 +1590,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1613,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1636,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1647,22 +1659,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>23</v>
@@ -1670,22 +1682,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>23</v>
@@ -1693,19 +1705,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1716,22 +1728,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>23</v>
@@ -1739,22 +1751,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>23</v>
@@ -1762,22 +1774,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>23</v>
@@ -1785,19 +1797,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1820,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>17</v>
@@ -1831,22 +1843,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>23</v>
@@ -1854,22 +1866,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>23</v>
@@ -1877,19 +1889,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1912,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
@@ -1923,7 +1935,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>111</v>
@@ -1932,10 +1944,10 @@
         <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1946,7 +1958,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>112</v>
@@ -1955,10 +1967,10 @@
         <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
@@ -1969,7 +1981,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>113</v>
@@ -1978,13 +1990,13 @@
         <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -1992,7 +2004,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -2001,13 +2013,13 @@
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>23</v>
@@ -2015,22 +2027,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2038,22 +2050,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>23</v>
@@ -2061,19 +2073,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -2084,19 +2096,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2107,22 +2119,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>23</v>
@@ -2130,19 +2142,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2165,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2176,19 +2188,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2234,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2245,22 +2257,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>23</v>
@@ -2268,19 +2280,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2303,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2337,22 +2349,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>23</v>
@@ -2360,22 +2372,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>23</v>
@@ -2383,22 +2395,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>23</v>
@@ -2406,22 +2418,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>23</v>
@@ -2429,19 +2441,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
@@ -2498,22 +2510,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>23</v>
@@ -2521,22 +2533,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>23</v>
@@ -2544,19 +2556,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2590,22 +2602,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>23</v>
@@ -2613,22 +2625,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>23</v>
@@ -2636,19 +2648,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>17</v>
@@ -2659,22 +2671,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>23</v>
@@ -2682,22 +2694,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>23</v>
@@ -2705,19 +2717,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2728,22 +2740,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>23</v>
@@ -2754,7 +2766,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>35</v>
@@ -2763,7 +2775,7 @@
         <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2789,19 @@
         <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>23</v>
@@ -2800,7 +2812,7 @@
         <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>35</v>
@@ -2809,10 +2821,10 @@
         <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>23</v>
@@ -2823,7 +2835,7 @@
         <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2832,7 +2844,7 @@
         <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2846,7 +2858,7 @@
         <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2855,7 +2867,7 @@
         <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2869,7 +2881,7 @@
         <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2878,7 +2890,7 @@
         <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2901,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2924,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2947,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2970,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2993,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3016,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3062,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3085,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3108,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3131,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3154,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3177,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3200,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3223,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3246,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3269,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3292,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3315,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3326,24 +3338,208 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>23</v>
       </c>
     </row>
